--- a/PhanMem/Data/Cat-TongHop.xlsx
+++ b/PhanMem/Data/Cat-TongHop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="18195" windowHeight="12075"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="18195" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>STT</t>
   </si>
@@ -38,13 +38,16 @@
   <si>
     <t>Số cái</t>
   </si>
+  <si>
+    <t>BẢNG TỔNG HỢP SẢN PHẨM BỘ PHẬN CẮT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -76,10 +79,11 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -102,7 +106,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -266,13 +270,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -283,39 +296,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -327,6 +307,40 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -634,57 +648,62 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:J3"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" style="8"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+    <row r="1" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="8"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="18" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -696,7 +715,7 @@
       <c r="F4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -710,25 +729,28 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="17"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
